--- a/Code/Results/Cases/Case_7_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_23/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.927204321089704</v>
+        <v>0.9907009472372295</v>
       </c>
       <c r="C2">
-        <v>0.227563025543688</v>
+        <v>0.05371980253047326</v>
       </c>
       <c r="D2">
-        <v>0.1413686217675547</v>
+        <v>0.1221369566391104</v>
       </c>
       <c r="E2">
-        <v>0.01782354298957545</v>
+        <v>0.01645353692718121</v>
       </c>
       <c r="F2">
-        <v>7.575742137860345</v>
+        <v>8.064260948238029</v>
       </c>
       <c r="G2">
-        <v>0.0008755201580925838</v>
+        <v>0.0009069466716799521</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.141259377928094</v>
+        <v>0.1905223637353046</v>
       </c>
       <c r="K2">
-        <v>0.4403533343979618</v>
+        <v>0.8125452889470637</v>
       </c>
       <c r="L2">
-        <v>0.07811162062333921</v>
+        <v>0.05677769732789884</v>
       </c>
       <c r="M2">
-        <v>0.2991448233312255</v>
+        <v>0.1653829632327231</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.722048507198878</v>
+        <v>0.9031113059386087</v>
       </c>
       <c r="C3">
-        <v>0.1941275222245338</v>
+        <v>0.04592532467766119</v>
       </c>
       <c r="D3">
-        <v>0.1239911507724258</v>
+        <v>0.1084569630459384</v>
       </c>
       <c r="E3">
-        <v>0.01753865788522369</v>
+        <v>0.01675107937536247</v>
       </c>
       <c r="F3">
-        <v>6.928609711896996</v>
+        <v>7.428218636729895</v>
       </c>
       <c r="G3">
-        <v>0.0008859911319630511</v>
+        <v>0.0009155988149061663</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1352395047327981</v>
+        <v>0.1812352745546804</v>
       </c>
       <c r="K3">
-        <v>0.3882766543034819</v>
+        <v>0.7282840700353574</v>
       </c>
       <c r="L3">
-        <v>0.07523525781099494</v>
+        <v>0.05578898046127989</v>
       </c>
       <c r="M3">
-        <v>0.2707746312283668</v>
+        <v>0.1531526912316394</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.60077726635879</v>
+        <v>0.8516067140136272</v>
       </c>
       <c r="C4">
-        <v>0.1741561116023149</v>
+        <v>0.04125502446058249</v>
       </c>
       <c r="D4">
-        <v>0.1134980409881194</v>
+        <v>0.1001416552889864</v>
       </c>
       <c r="E4">
-        <v>0.01736937554300066</v>
+        <v>0.01694821447952899</v>
       </c>
       <c r="F4">
-        <v>6.539913049707593</v>
+        <v>7.043457907181931</v>
       </c>
       <c r="G4">
-        <v>0.0008925763849598848</v>
+        <v>0.0009210551610033596</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1316076959372303</v>
+        <v>0.1756073593647756</v>
       </c>
       <c r="K4">
-        <v>0.3574162919271657</v>
+        <v>0.6785720915313647</v>
       </c>
       <c r="L4">
-        <v>0.07367911011539974</v>
+        <v>0.05534550626188306</v>
       </c>
       <c r="M4">
-        <v>0.2541116268736801</v>
+        <v>0.1460504289922042</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.552425133975731</v>
+        <v>0.8311469139289613</v>
       </c>
       <c r="C5">
-        <v>0.1661383619136103</v>
+        <v>0.03937647250796061</v>
       </c>
       <c r="D5">
-        <v>0.1092588197603419</v>
+        <v>0.09676959775212168</v>
       </c>
       <c r="E5">
-        <v>0.01730159442107437</v>
+        <v>0.01703217211878183</v>
       </c>
       <c r="F5">
-        <v>6.383410665300516</v>
+        <v>6.887923368158596</v>
       </c>
       <c r="G5">
-        <v>0.0008953015633817082</v>
+        <v>0.0009233163821135211</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1301409396240416</v>
+        <v>0.1733297187371576</v>
       </c>
       <c r="K5">
-        <v>0.3450916202265333</v>
+        <v>0.658780272737161</v>
       </c>
       <c r="L5">
-        <v>0.07309473983390902</v>
+        <v>0.05520408118231401</v>
       </c>
       <c r="M5">
-        <v>0.2474947294110841</v>
+        <v>0.1432516221414453</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.544457612247612</v>
+        <v>0.8277803072039092</v>
       </c>
       <c r="C6">
-        <v>0.1648137780382797</v>
+        <v>0.03906590596385939</v>
       </c>
       <c r="D6">
-        <v>0.1085569128479165</v>
+        <v>0.09621053589960837</v>
       </c>
       <c r="E6">
-        <v>0.01729040622258626</v>
+        <v>0.01704633185646598</v>
       </c>
       <c r="F6">
-        <v>6.357530301003493</v>
+        <v>6.862167629965825</v>
       </c>
       <c r="G6">
-        <v>0.0008957566580359545</v>
+        <v>0.0009236941769461549</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1298981036584053</v>
+        <v>0.1729523899336485</v>
       </c>
       <c r="K6">
-        <v>0.3430594874741573</v>
+        <v>0.6555208249100701</v>
       </c>
       <c r="L6">
-        <v>0.07300062890341863</v>
+        <v>0.05518291983651125</v>
       </c>
       <c r="M6">
-        <v>0.2464060112904072</v>
+        <v>0.1427924526060451</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.60012099541035</v>
+        <v>0.8513287001561309</v>
       </c>
       <c r="C7">
-        <v>0.1740475169560369</v>
+        <v>0.04122959548525529</v>
       </c>
       <c r="D7">
-        <v>0.1134407299417717</v>
+        <v>0.100096117695756</v>
       </c>
       <c r="E7">
-        <v>0.01736845681996746</v>
+        <v>0.01694933210001004</v>
       </c>
       <c r="F7">
-        <v>6.537795083473128</v>
+        <v>7.041355462323509</v>
       </c>
       <c r="G7">
-        <v>0.0008926129660443456</v>
+        <v>0.000921085501876792</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1315878648816167</v>
+        <v>0.1755765821214297</v>
       </c>
       <c r="K7">
-        <v>0.3572490966453827</v>
+        <v>0.6783033386716824</v>
       </c>
       <c r="L7">
-        <v>0.07367103134691888</v>
+        <v>0.05534344218132148</v>
       </c>
       <c r="M7">
-        <v>0.2540217079821865</v>
+        <v>0.1460123057403599</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.855420069952999</v>
+        <v>0.9600003540601563</v>
       </c>
       <c r="C8">
-        <v>0.2159062065368005</v>
+        <v>0.05100550371083301</v>
       </c>
       <c r="D8">
-        <v>0.1353353725566677</v>
+        <v>0.1173996699121602</v>
       </c>
       <c r="E8">
-        <v>0.01772400720561151</v>
+        <v>0.0165531264977643</v>
       </c>
       <c r="F8">
-        <v>7.350640237691806</v>
+        <v>7.843634756183434</v>
       </c>
       <c r="G8">
-        <v>0.0008790996771982818</v>
+        <v>0.0009099010232397226</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1391684837603542</v>
+        <v>0.1873029003163325</v>
       </c>
       <c r="K8">
-        <v>0.4221474112790489</v>
+        <v>0.7830448129531078</v>
       </c>
       <c r="L8">
-        <v>0.07707436100017162</v>
+        <v>0.05640167278950869</v>
       </c>
       <c r="M8">
-        <v>0.2891951566675814</v>
+        <v>0.1610770813552023</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.399104593402512</v>
+        <v>1.193333873160043</v>
       </c>
       <c r="C9">
-        <v>0.3034200889100021</v>
+        <v>0.07131426586601464</v>
       </c>
       <c r="D9">
-        <v>0.1800584788906292</v>
+        <v>0.1522324770056258</v>
       </c>
       <c r="E9">
-        <v>0.01847713139736129</v>
+        <v>0.01589122574325774</v>
       </c>
       <c r="F9">
-        <v>9.027344073111578</v>
+        <v>9.472277987653172</v>
       </c>
       <c r="G9">
-        <v>0.0008537173952085342</v>
+        <v>0.0008890344007271295</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1546951969290191</v>
+        <v>0.2110337706642085</v>
       </c>
       <c r="K9">
-        <v>0.5597453959559147</v>
+        <v>1.006650525691839</v>
       </c>
       <c r="L9">
-        <v>0.08556817658954685</v>
+        <v>0.05986702599132343</v>
       </c>
       <c r="M9">
-        <v>0.365026588990716</v>
+        <v>0.1941972306362025</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.834037608988979</v>
+        <v>1.380476556609835</v>
       </c>
       <c r="C10">
-        <v>0.3726339718516272</v>
+        <v>0.08727604276650425</v>
       </c>
       <c r="D10">
-        <v>0.2146173478770947</v>
+        <v>0.1787309640589854</v>
       </c>
       <c r="E10">
-        <v>0.01908277649019219</v>
+        <v>0.01547585920359706</v>
       </c>
       <c r="F10">
-        <v>10.33203805966986</v>
+        <v>10.71743651128537</v>
       </c>
       <c r="G10">
-        <v>0.0008355592079951624</v>
+        <v>0.0008742371772925139</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1667442280809084</v>
+        <v>0.2291421998520775</v>
       </c>
       <c r="K10">
-        <v>0.6695145065752612</v>
+        <v>1.185372982911076</v>
       </c>
       <c r="L10">
-        <v>0.09316460033924301</v>
+        <v>0.0634039818845693</v>
       </c>
       <c r="M10">
-        <v>0.4262853437044285</v>
+        <v>0.2212529828557663</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.042065010773683</v>
+        <v>1.469889683101201</v>
       </c>
       <c r="C11">
-        <v>0.4056203535819805</v>
+        <v>0.09485332429906634</v>
       </c>
       <c r="D11">
-        <v>0.2308692120032276</v>
+        <v>0.1910731242816723</v>
       </c>
       <c r="E11">
-        <v>0.01937468557133482</v>
+        <v>0.01530252710780688</v>
       </c>
       <c r="F11">
-        <v>10.94728410925632</v>
+        <v>11.29820370705193</v>
       </c>
       <c r="G11">
-        <v>0.0008273549490841816</v>
+        <v>0.0008675920492942938</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1724280694795723</v>
+        <v>0.2375834281439779</v>
       </c>
       <c r="K11">
-        <v>0.7219685413698613</v>
+        <v>1.270670156271279</v>
       </c>
       <c r="L11">
-        <v>0.09698062091197812</v>
+        <v>0.06526506186085612</v>
       </c>
       <c r="M11">
-        <v>0.4557209558206736</v>
+        <v>0.2342910449386579</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.122546326276279</v>
+        <v>1.504446361924323</v>
       </c>
       <c r="C12">
-        <v>0.4183703553513851</v>
+        <v>0.09777679485425494</v>
       </c>
       <c r="D12">
-        <v>0.2371155133509291</v>
+        <v>0.1957967117122905</v>
       </c>
       <c r="E12">
-        <v>0.01948809544972052</v>
+        <v>0.01523916067790765</v>
       </c>
       <c r="F12">
-        <v>11.18396599209098</v>
+        <v>11.52054233394625</v>
       </c>
       <c r="G12">
-        <v>0.0008242513597813451</v>
+        <v>0.000865085349704517</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1746157725309061</v>
+        <v>0.240814574222469</v>
       </c>
       <c r="K12">
-        <v>0.7422567086623246</v>
+        <v>1.303626492578786</v>
       </c>
       <c r="L12">
-        <v>0.09848400471219776</v>
+        <v>0.06600959393063022</v>
       </c>
       <c r="M12">
-        <v>0.4671290477629597</v>
+        <v>0.239346479227855</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.105133083859471</v>
+        <v>1.496971502543573</v>
       </c>
       <c r="C13">
-        <v>0.4156121438761318</v>
+        <v>0.09714461585285505</v>
       </c>
       <c r="D13">
-        <v>0.2357658891028933</v>
+        <v>0.1947770382992218</v>
       </c>
       <c r="E13">
-        <v>0.0194635337749216</v>
+        <v>0.01525270634865228</v>
       </c>
       <c r="F13">
-        <v>11.13281756465119</v>
+        <v>11.47254426243916</v>
       </c>
       <c r="G13">
-        <v>0.0008249197170024924</v>
+        <v>0.0008656248294029721</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1741429296866812</v>
+        <v>0.2401170563889323</v>
       </c>
       <c r="K13">
-        <v>0.7378672822697325</v>
+        <v>1.29649816116239</v>
       </c>
       <c r="L13">
-        <v>0.09815751439478504</v>
+        <v>0.06584741524576287</v>
       </c>
       <c r="M13">
-        <v>0.4646598493145362</v>
+        <v>0.238252215752059</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.048650540611561</v>
+        <v>1.472718187055904</v>
       </c>
       <c r="C14">
-        <v>0.4066638460141689</v>
+        <v>0.09509270163121641</v>
       </c>
       <c r="D14">
-        <v>0.2313811549739881</v>
+        <v>0.1914606848137907</v>
       </c>
       <c r="E14">
-        <v>0.0193839550761159</v>
+        <v>0.01529726825067179</v>
       </c>
       <c r="F14">
-        <v>10.96667827191669</v>
+        <v>11.31644507293498</v>
       </c>
       <c r="G14">
-        <v>0.0008270995818238648</v>
+        <v>0.0008673856449450961</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1726073054977988</v>
+        <v>0.2378485293257526</v>
       </c>
       <c r="K14">
-        <v>0.7236287494225735</v>
+        <v>1.273367838852153</v>
       </c>
       <c r="L14">
-        <v>0.09710309492906077</v>
+        <v>0.06532549584531466</v>
       </c>
       <c r="M14">
-        <v>0.4566540403400552</v>
+        <v>0.2347045080412435</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.014283365617132</v>
+        <v>1.457955833121076</v>
       </c>
       <c r="C15">
-        <v>0.4012178519388101</v>
+        <v>0.09384316940163728</v>
       </c>
       <c r="D15">
-        <v>0.2287078771741164</v>
+        <v>0.189436087229339</v>
       </c>
       <c r="E15">
-        <v>0.01933560141429602</v>
+        <v>0.01532486020900725</v>
       </c>
       <c r="F15">
-        <v>10.86541379938291</v>
+        <v>11.22115547073054</v>
       </c>
       <c r="G15">
-        <v>0.0008284350695373072</v>
+        <v>0.000868465367137068</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1716714965287522</v>
+        <v>0.236463671617372</v>
       </c>
       <c r="K15">
-        <v>0.7149646098190203</v>
+        <v>1.25928789856323</v>
       </c>
       <c r="L15">
-        <v>0.09646504125723254</v>
+        <v>0.06501109833185126</v>
       </c>
       <c r="M15">
-        <v>0.4517854634956464</v>
+        <v>0.2325472482084017</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.820667166981536</v>
+        <v>1.374726143897192</v>
       </c>
       <c r="C16">
-        <v>0.3705119486765796</v>
+        <v>0.08678792569304505</v>
       </c>
       <c r="D16">
-        <v>0.2135672248141418</v>
+        <v>0.177930870373558</v>
       </c>
       <c r="E16">
-        <v>0.01906407123688902</v>
+        <v>0.01548750318489045</v>
       </c>
       <c r="F16">
-        <v>10.29231495435147</v>
+        <v>10.67979975435301</v>
       </c>
       <c r="G16">
-        <v>0.0008360961025620224</v>
+        <v>0.0008746729604943175</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1663773635781212</v>
+        <v>0.2285950865155186</v>
       </c>
       <c r="K16">
-        <v>0.6661423461909592</v>
+        <v>1.179885754284129</v>
       </c>
       <c r="L16">
-        <v>0.09292300028655376</v>
+        <v>0.06328772051302423</v>
       </c>
       <c r="M16">
-        <v>0.4243961655786208</v>
+        <v>0.2204167001127075</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.704657012801931</v>
+        <v>1.324819272680742</v>
       </c>
       <c r="C17">
-        <v>0.3520876836962259</v>
+        <v>0.08254654832950337</v>
       </c>
       <c r="D17">
-        <v>0.204425369903305</v>
+        <v>0.1709522541623016</v>
       </c>
       <c r="E17">
-        <v>0.0189020327352889</v>
+        <v>0.015591296273052</v>
       </c>
       <c r="F17">
-        <v>9.946687810967376</v>
+        <v>10.35160618260568</v>
       </c>
       <c r="G17">
-        <v>0.0008408069972545874</v>
+        <v>0.0008785013520719471</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1631856240205565</v>
+        <v>0.223823730714706</v>
       </c>
       <c r="K17">
-        <v>0.6368783629885257</v>
+        <v>1.132253342313675</v>
       </c>
       <c r="L17">
-        <v>0.09084669950517821</v>
+        <v>0.06229742764676161</v>
       </c>
       <c r="M17">
-        <v>0.4080193318452316</v>
+        <v>0.21317092003369</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.638872117785013</v>
+        <v>1.29651161556157</v>
       </c>
       <c r="C18">
-        <v>0.3416288346747933</v>
+        <v>0.08013620043514891</v>
       </c>
       <c r="D18">
-        <v>0.1992161152256529</v>
+        <v>0.1669648712422998</v>
       </c>
       <c r="E18">
-        <v>0.01881034039849183</v>
+        <v>0.01565246386780661</v>
       </c>
       <c r="F18">
-        <v>9.749898824999292</v>
+        <v>10.1641640783082</v>
       </c>
       <c r="G18">
-        <v>0.0008435221800819571</v>
+        <v>0.0008807116365477305</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1613684737879311</v>
+        <v>0.2210981822324385</v>
       </c>
       <c r="K18">
-        <v>0.6202793633283648</v>
+        <v>1.105227054570491</v>
       </c>
       <c r="L18">
-        <v>0.08968594075175673</v>
+        <v>0.06175133041782033</v>
       </c>
       <c r="M18">
-        <v>0.3987450148419711</v>
+        <v>0.2090711942308019</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.616753313753748</v>
+        <v>1.286993049540456</v>
       </c>
       <c r="C19">
-        <v>0.33811020207105</v>
+        <v>0.07932486452126852</v>
       </c>
       <c r="D19">
-        <v>0.1974603073164047</v>
+        <v>0.1656191261832589</v>
       </c>
       <c r="E19">
-        <v>0.01877953978227698</v>
+        <v>0.01567342570881269</v>
       </c>
       <c r="F19">
-        <v>9.683597897740668</v>
+        <v>10.10091708645948</v>
       </c>
       <c r="G19">
-        <v>0.0008444425927645588</v>
+        <v>0.0008814615037680257</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1607562476123761</v>
+        <v>0.220178435767977</v>
       </c>
       <c r="K19">
-        <v>0.6146974695133096</v>
+        <v>1.096137749142827</v>
       </c>
       <c r="L19">
-        <v>0.08929849460942307</v>
+        <v>0.06157036579732278</v>
       </c>
       <c r="M19">
-        <v>0.3956288245483179</v>
+        <v>0.2076943760750503</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.71690745386195</v>
+        <v>1.330090245676274</v>
       </c>
       <c r="C20">
-        <v>0.3540343751106434</v>
+        <v>0.08299497111784149</v>
       </c>
       <c r="D20">
-        <v>0.2053933685858453</v>
+        <v>0.171692335423117</v>
       </c>
       <c r="E20">
-        <v>0.01891912252491412</v>
+        <v>0.01558009516712877</v>
       </c>
       <c r="F20">
-        <v>9.983268831042835</v>
+        <v>10.38640327213483</v>
       </c>
       <c r="G20">
-        <v>0.0008403049679655917</v>
+        <v>0.0008780929736325603</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1635234175394089</v>
+        <v>0.2243296662109273</v>
       </c>
       <c r="K20">
-        <v>0.6399690399404108</v>
+        <v>1.137284977906006</v>
       </c>
       <c r="L20">
-        <v>0.09106421677118703</v>
+        <v>0.06240039041303902</v>
       </c>
       <c r="M20">
-        <v>0.4097474032561266</v>
+        <v>0.2139351325793903</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.065192409118538</v>
+        <v>1.479822326174144</v>
       </c>
       <c r="C21">
-        <v>0.4092847768838226</v>
+        <v>0.09569385504084948</v>
       </c>
       <c r="D21">
-        <v>0.2326664214587169</v>
+        <v>0.1924333518810073</v>
       </c>
       <c r="E21">
-        <v>0.0194072468205202</v>
+        <v>0.01528411749842684</v>
       </c>
       <c r="F21">
-        <v>11.01537192153626</v>
+        <v>11.36222663121669</v>
       </c>
       <c r="G21">
-        <v>0.0008264592586452678</v>
+        <v>0.0008668682115736548</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1730573416633163</v>
+        <v>0.238513864789752</v>
       </c>
       <c r="K21">
-        <v>0.7277988688891242</v>
+        <v>1.280143264979671</v>
       </c>
       <c r="L21">
-        <v>0.09741116302473785</v>
+        <v>0.06547768617861038</v>
       </c>
       <c r="M21">
-        <v>0.458998130012283</v>
+        <v>0.2357432343079218</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.30290184228744</v>
+        <v>1.581794630193116</v>
       </c>
       <c r="C22">
-        <v>0.446927830501437</v>
+        <v>0.1043136511074891</v>
       </c>
       <c r="D22">
-        <v>0.2510367426283864</v>
+        <v>0.2062842328747223</v>
       </c>
       <c r="E22">
-        <v>0.01974330410293712</v>
+        <v>0.0151039286975827</v>
       </c>
       <c r="F22">
-        <v>11.71182055747687</v>
+        <v>12.01425389847412</v>
       </c>
       <c r="G22">
-        <v>0.0008174260329455339</v>
+        <v>0.0008595870118575264</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1794980150111769</v>
+        <v>0.2479889155641146</v>
       </c>
       <c r="K22">
-        <v>0.7877144828607783</v>
+        <v>1.377379697820885</v>
       </c>
       <c r="L22">
-        <v>0.1019031255350029</v>
+        <v>0.06772273271557339</v>
       </c>
       <c r="M22">
-        <v>0.4927313408727727</v>
+        <v>0.2506924508063406</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.175018352789095</v>
+        <v>1.526963693474073</v>
       </c>
       <c r="C23">
-        <v>0.4266805488291254</v>
+        <v>0.09968061824373819</v>
       </c>
       <c r="D23">
-        <v>0.2411763635179653</v>
+        <v>0.1988616510428756</v>
       </c>
       <c r="E23">
-        <v>0.01956218994368752</v>
+        <v>0.01519887728579095</v>
       </c>
       <c r="F23">
-        <v>11.33789390438039</v>
+        <v>11.66482093809589</v>
       </c>
       <c r="G23">
-        <v>0.0008222476032488749</v>
+        <v>0.000863469097442617</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.176039002363737</v>
+        <v>0.2429112143769458</v>
       </c>
       <c r="K23">
-        <v>0.7554829509284815</v>
+        <v>1.325098866207952</v>
       </c>
       <c r="L23">
-        <v>0.09947178007222846</v>
+        <v>0.06650182293604701</v>
       </c>
       <c r="M23">
-        <v>0.4745725155980764</v>
+        <v>0.2426452451073864</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.711366210081849</v>
+        <v>1.327706047338097</v>
       </c>
       <c r="C24">
-        <v>0.3531538632293234</v>
+        <v>0.08279215236225923</v>
       </c>
       <c r="D24">
-        <v>0.2049555926398625</v>
+        <v>0.1713576683271185</v>
       </c>
       <c r="E24">
-        <v>0.01891139170280765</v>
+        <v>0.01558515453056408</v>
       </c>
       <c r="F24">
-        <v>9.966724624277106</v>
+        <v>10.3706676694259</v>
       </c>
       <c r="G24">
-        <v>0.0008405319137898086</v>
+        <v>0.0008782775724126754</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1633706460295414</v>
+        <v>0.2241008784507699</v>
       </c>
       <c r="K24">
-        <v>0.6385710478748123</v>
+        <v>1.135009065712438</v>
       </c>
       <c r="L24">
-        <v>0.09096577511134996</v>
+        <v>0.06235376883444843</v>
       </c>
       <c r="M24">
-        <v>0.4089657058020322</v>
+        <v>0.2135894275823667</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.246534668326376</v>
+        <v>1.127718604006475</v>
       </c>
       <c r="C25">
-        <v>0.2790114808217652</v>
+        <v>0.06566496280228762</v>
       </c>
       <c r="D25">
-        <v>0.1677098643225889</v>
+        <v>0.142678100179495</v>
       </c>
       <c r="E25">
-        <v>0.01826569385656773</v>
+        <v>0.01605789737768326</v>
       </c>
       <c r="F25">
-        <v>8.562754012966792</v>
+        <v>9.024318776643582</v>
       </c>
       <c r="G25">
-        <v>0.0008604826617034867</v>
+        <v>0.000894576572002274</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1504012657468152</v>
+        <v>0.2045133655432494</v>
       </c>
       <c r="K25">
-        <v>0.52118912800929</v>
+        <v>0.9438874657337522</v>
       </c>
       <c r="L25">
-        <v>0.08305209252967671</v>
+        <v>0.05876688343711933</v>
       </c>
       <c r="M25">
-        <v>0.3436481191586367</v>
+        <v>0.1848020073012044</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9907009472372295</v>
+        <v>0.8717666492633782</v>
       </c>
       <c r="C2">
-        <v>0.05371980253047326</v>
+        <v>0.09372099080403018</v>
       </c>
       <c r="D2">
-        <v>0.1221369566391104</v>
+        <v>0.02950036453442806</v>
       </c>
       <c r="E2">
-        <v>0.01645353692718121</v>
+        <v>0.03089839487320489</v>
       </c>
       <c r="F2">
-        <v>8.064260948238029</v>
+        <v>1.386798605642156</v>
       </c>
       <c r="G2">
-        <v>0.0009069466716799521</v>
+        <v>1.144117453810509</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03086504531896561</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1905223637353046</v>
+        <v>0.8053440165168979</v>
       </c>
       <c r="K2">
-        <v>0.8125452889470637</v>
+        <v>0.8810923612770623</v>
       </c>
       <c r="L2">
-        <v>0.05677769732789884</v>
+        <v>0.05574536439287847</v>
       </c>
       <c r="M2">
-        <v>0.1653829632327231</v>
+        <v>0.8301602760077458</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1372846884131178</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1873367612033121</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9031113059386087</v>
+        <v>0.7596921137125889</v>
       </c>
       <c r="C3">
-        <v>0.04592532467766119</v>
+        <v>0.08334970376853335</v>
       </c>
       <c r="D3">
-        <v>0.1084569630459384</v>
+        <v>0.02587271450211404</v>
       </c>
       <c r="E3">
-        <v>0.01675107937536247</v>
+        <v>0.02875202922896936</v>
       </c>
       <c r="F3">
-        <v>7.428218636729895</v>
+        <v>1.343748831403929</v>
       </c>
       <c r="G3">
-        <v>0.0009155988149061663</v>
+        <v>1.108642031602429</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03675610587808786</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1812352745546804</v>
+        <v>0.7943959594364429</v>
       </c>
       <c r="K3">
-        <v>0.7282840700353574</v>
+        <v>0.8688193744838344</v>
       </c>
       <c r="L3">
-        <v>0.05578898046127989</v>
+        <v>0.05313276711837212</v>
       </c>
       <c r="M3">
-        <v>0.1531526912316394</v>
+        <v>0.7214404834542734</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1223618969113929</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1641719121536838</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8516067140136272</v>
+        <v>0.6910611052528566</v>
       </c>
       <c r="C4">
-        <v>0.04125502446058249</v>
+        <v>0.0769857626292918</v>
       </c>
       <c r="D4">
-        <v>0.1001416552889864</v>
+        <v>0.023648410000078</v>
       </c>
       <c r="E4">
-        <v>0.01694821447952899</v>
+        <v>0.0274307232918467</v>
       </c>
       <c r="F4">
-        <v>7.043457907181931</v>
+        <v>1.318505311144477</v>
       </c>
       <c r="G4">
-        <v>0.0009210551610033596</v>
+        <v>1.087998249441569</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.04076200612334135</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1756073593647756</v>
+        <v>0.7883421492757208</v>
       </c>
       <c r="K4">
-        <v>0.6785720915313647</v>
+        <v>0.8620301803425434</v>
       </c>
       <c r="L4">
-        <v>0.05534550626188306</v>
+        <v>0.0515057780804451</v>
       </c>
       <c r="M4">
-        <v>0.1460504289922042</v>
+        <v>0.6548408797572733</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1132031927187427</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1499777055296576</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8311469139289613</v>
+        <v>0.6631306210142895</v>
       </c>
       <c r="C5">
-        <v>0.03937647250796061</v>
+        <v>0.0743919401278248</v>
       </c>
       <c r="D5">
-        <v>0.09676959775212168</v>
+        <v>0.02274244969720129</v>
       </c>
       <c r="E5">
-        <v>0.01703217211878183</v>
+        <v>0.0268909943282436</v>
       </c>
       <c r="F5">
-        <v>6.887923368158596</v>
+        <v>1.308505004378219</v>
       </c>
       <c r="G5">
-        <v>0.0009233163821135211</v>
+        <v>1.079859293644574</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.04248888804014195</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1733297187371576</v>
+        <v>0.7860375762158753</v>
       </c>
       <c r="K5">
-        <v>0.658780272737161</v>
+        <v>0.8594445056116768</v>
       </c>
       <c r="L5">
-        <v>0.05520408118231401</v>
+        <v>0.05083642184701365</v>
       </c>
       <c r="M5">
-        <v>0.1432516221414453</v>
+        <v>0.6277305082391251</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1094706078907564</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.144199081151541</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8277803072039092</v>
+        <v>0.6584947833163426</v>
       </c>
       <c r="C6">
-        <v>0.03906590596385939</v>
+        <v>0.07396116784720874</v>
       </c>
       <c r="D6">
-        <v>0.09621053589960837</v>
+        <v>0.0225920348010753</v>
       </c>
       <c r="E6">
-        <v>0.01704633185646598</v>
+        <v>0.026801283056332</v>
       </c>
       <c r="F6">
-        <v>6.862167629965825</v>
+        <v>1.306861420912092</v>
       </c>
       <c r="G6">
-        <v>0.0009236941769461549</v>
+        <v>1.078523988537398</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.04278124528496052</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1729523899336485</v>
+        <v>0.7856645519663772</v>
       </c>
       <c r="K6">
-        <v>0.6555208249100701</v>
+        <v>0.8590258958018353</v>
       </c>
       <c r="L6">
-        <v>0.05518291983651125</v>
+        <v>0.05072487542158033</v>
       </c>
       <c r="M6">
-        <v>0.1427924526060451</v>
+        <v>0.6232303687518908</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1088507568852179</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1432398374670534</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8513287001561309</v>
+        <v>0.6906842856661797</v>
       </c>
       <c r="C7">
-        <v>0.04122959548525529</v>
+        <v>0.07695078522217358</v>
       </c>
       <c r="D7">
-        <v>0.100096117695756</v>
+        <v>0.02363619043217824</v>
       </c>
       <c r="E7">
-        <v>0.01694933210001004</v>
+        <v>0.02742345007143854</v>
       </c>
       <c r="F7">
-        <v>7.041355462323509</v>
+        <v>1.318369298929071</v>
       </c>
       <c r="G7">
-        <v>0.000921085501876792</v>
+        <v>1.087887393359466</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.04078491733471745</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1755765821214297</v>
+        <v>0.7883104187140191</v>
       </c>
       <c r="K7">
-        <v>0.6783033386716824</v>
+        <v>0.8619945849318569</v>
       </c>
       <c r="L7">
-        <v>0.05534344218132148</v>
+        <v>0.05149677737591052</v>
       </c>
       <c r="M7">
-        <v>0.1460123057403599</v>
+        <v>0.6544751523944967</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.113152856858818</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1498997523483183</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9600003540601563</v>
+        <v>0.8330798030949325</v>
       </c>
       <c r="C8">
-        <v>0.05100550371083301</v>
+        <v>0.09014320179390722</v>
       </c>
       <c r="D8">
-        <v>0.1173996699121602</v>
+        <v>0.02824871283352337</v>
       </c>
       <c r="E8">
-        <v>0.0165531264977643</v>
+        <v>0.0301587777744956</v>
       </c>
       <c r="F8">
-        <v>7.843634756183434</v>
+        <v>1.371700566534358</v>
       </c>
       <c r="G8">
-        <v>0.0009099010232397226</v>
+        <v>1.131641460101037</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.03281356131770763</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1873029003163325</v>
+        <v>0.8014269221124124</v>
       </c>
       <c r="K8">
-        <v>0.7830448129531078</v>
+        <v>0.8767015574127512</v>
       </c>
       <c r="L8">
-        <v>0.05640167278950869</v>
+        <v>0.05484891256630853</v>
       </c>
       <c r="M8">
-        <v>0.1610770813552023</v>
+        <v>0.7926357035600802</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1321376642950156</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1793424285525198</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.193333873160043</v>
+        <v>1.114208791091727</v>
       </c>
       <c r="C9">
-        <v>0.07131426586601464</v>
+        <v>0.1161182314465066</v>
       </c>
       <c r="D9">
-        <v>0.1522324770056258</v>
+        <v>0.03733410344701582</v>
       </c>
       <c r="E9">
-        <v>0.01589122574325774</v>
+        <v>0.03551586014387453</v>
       </c>
       <c r="F9">
-        <v>9.472277987653172</v>
+        <v>1.486312456021821</v>
       </c>
       <c r="G9">
-        <v>0.0008890344007271295</v>
+        <v>1.227080222847761</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02042184988973161</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2110337706642085</v>
+        <v>0.8327215073018266</v>
       </c>
       <c r="K9">
-        <v>1.006650525691839</v>
+        <v>0.9117853821208968</v>
       </c>
       <c r="L9">
-        <v>0.05986702599132343</v>
+        <v>0.06126962946835413</v>
       </c>
       <c r="M9">
-        <v>0.1941972306362025</v>
+        <v>1.065260202912526</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1694630936383206</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2373939494121586</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.380476556609835</v>
+        <v>1.322427886468432</v>
       </c>
       <c r="C10">
-        <v>0.08727604276650425</v>
+        <v>0.1364968359630581</v>
       </c>
       <c r="D10">
-        <v>0.1787309640589854</v>
+        <v>0.04361561526278734</v>
       </c>
       <c r="E10">
-        <v>0.01547585920359706</v>
+        <v>0.03825498074018618</v>
       </c>
       <c r="F10">
-        <v>10.71743651128537</v>
+        <v>1.554417757265881</v>
       </c>
       <c r="G10">
-        <v>0.0008742371772925139</v>
+        <v>1.283002089723496</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01399104587212108</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2291421998520775</v>
+        <v>0.8489253761121063</v>
       </c>
       <c r="K10">
-        <v>1.185372982911076</v>
+        <v>0.9277523957172988</v>
       </c>
       <c r="L10">
-        <v>0.0634039818845693</v>
+        <v>0.06449989946904111</v>
       </c>
       <c r="M10">
-        <v>0.2212529828557663</v>
+        <v>1.269572072906328</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1906730524341285</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2772474524844384</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.469889683101201</v>
+        <v>1.416377609378287</v>
       </c>
       <c r="C11">
-        <v>0.09485332429906634</v>
+        <v>0.1561855699640233</v>
       </c>
       <c r="D11">
-        <v>0.1910731242816723</v>
+        <v>0.04264980906664562</v>
       </c>
       <c r="E11">
-        <v>0.01530252710780688</v>
+        <v>0.03064698249729947</v>
       </c>
       <c r="F11">
-        <v>11.29820370705193</v>
+        <v>1.392846882068241</v>
       </c>
       <c r="G11">
-        <v>0.0008675920492942938</v>
+        <v>1.134364971299135</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03199601902662152</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2375834281439779</v>
+        <v>0.7683193040980427</v>
       </c>
       <c r="K11">
-        <v>1.270670156271279</v>
+        <v>0.8190875596949212</v>
       </c>
       <c r="L11">
-        <v>0.06526506186085612</v>
+        <v>0.0586416970099658</v>
       </c>
       <c r="M11">
-        <v>0.2342910449386579</v>
+        <v>1.383529832041404</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1489095123262771</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2684957360953888</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.504446361924323</v>
+        <v>1.451533427499299</v>
       </c>
       <c r="C12">
-        <v>0.09777679485425494</v>
+        <v>0.1693138311663063</v>
       </c>
       <c r="D12">
-        <v>0.1957967117122905</v>
+        <v>0.04049829463805565</v>
       </c>
       <c r="E12">
-        <v>0.01523916067790765</v>
+        <v>0.02601106347236515</v>
       </c>
       <c r="F12">
-        <v>11.52054233394625</v>
+        <v>1.249248785402614</v>
       </c>
       <c r="G12">
-        <v>0.000865085349704517</v>
+        <v>1.004382082568881</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07093465030825996</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.240814574222469</v>
+        <v>0.7002094445642939</v>
       </c>
       <c r="K12">
-        <v>1.303626492578786</v>
+        <v>0.7303458108240477</v>
       </c>
       <c r="L12">
-        <v>0.06600959393063022</v>
+        <v>0.05998339663091201</v>
       </c>
       <c r="M12">
-        <v>0.239346479227855</v>
+        <v>1.437403599483162</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1143547225836556</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2527579920878154</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.496971502543573</v>
+        <v>1.44309814335611</v>
       </c>
       <c r="C13">
-        <v>0.09714461585285505</v>
+        <v>0.1779850967171228</v>
       </c>
       <c r="D13">
-        <v>0.1947770382992218</v>
+        <v>0.03732261103702683</v>
       </c>
       <c r="E13">
-        <v>0.01525270634865228</v>
+        <v>0.02337402167351005</v>
       </c>
       <c r="F13">
-        <v>11.47254426243916</v>
+        <v>1.110954822610026</v>
       </c>
       <c r="G13">
-        <v>0.0008656248294029721</v>
+        <v>0.8809107783070402</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1276708454893338</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2401170563889323</v>
+        <v>0.6375202384167977</v>
       </c>
       <c r="K13">
-        <v>1.29649816116239</v>
+        <v>0.6514621230652651</v>
       </c>
       <c r="L13">
-        <v>0.06584741524576287</v>
+        <v>0.06675187449682696</v>
       </c>
       <c r="M13">
-        <v>0.238252215752059</v>
+        <v>1.44756503209959</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08354984389875142</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2308670533480495</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.472718187055904</v>
+        <v>1.417495185949434</v>
       </c>
       <c r="C14">
-        <v>0.09509270163121641</v>
+        <v>0.1820590947016427</v>
       </c>
       <c r="D14">
-        <v>0.1914606848137907</v>
+        <v>0.03465917176720978</v>
       </c>
       <c r="E14">
-        <v>0.01529726825067179</v>
+        <v>0.02274821190919041</v>
       </c>
       <c r="F14">
-        <v>11.31644507293498</v>
+        <v>1.018228086101217</v>
       </c>
       <c r="G14">
-        <v>0.0008673856449450961</v>
+        <v>0.7990109921698121</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1780296264227132</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2378485293257526</v>
+        <v>0.596813809151314</v>
       </c>
       <c r="K14">
-        <v>1.273367838852153</v>
+        <v>0.6018589753017736</v>
       </c>
       <c r="L14">
-        <v>0.06532549584531466</v>
+        <v>0.07474961592744478</v>
       </c>
       <c r="M14">
-        <v>0.2347045080412435</v>
+        <v>1.434890641642511</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06458681627281848</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2129430736919069</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.457955833121076</v>
+        <v>1.401979359671969</v>
       </c>
       <c r="C15">
-        <v>0.09384316940163728</v>
+        <v>0.1819678075118958</v>
       </c>
       <c r="D15">
-        <v>0.189436087229339</v>
+        <v>0.03380010288449142</v>
       </c>
       <c r="E15">
-        <v>0.01532486020900725</v>
+        <v>0.02271188362345811</v>
       </c>
       <c r="F15">
-        <v>11.22115547073054</v>
+        <v>0.9959704220472005</v>
       </c>
       <c r="G15">
-        <v>0.000868465367137068</v>
+        <v>0.7796044301617542</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1910278890126449</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.236463671617372</v>
+        <v>0.5876583976730672</v>
       </c>
       <c r="K15">
-        <v>1.25928789856323</v>
+        <v>0.5910932321603362</v>
       </c>
       <c r="L15">
-        <v>0.06501109833185126</v>
+        <v>0.07690585993130483</v>
       </c>
       <c r="M15">
-        <v>0.2325472482084017</v>
+        <v>1.42231967687286</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06014631303795426</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2073015767285575</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.374726143897192</v>
+        <v>1.313649073966985</v>
       </c>
       <c r="C16">
-        <v>0.08678792569304505</v>
+        <v>0.1709988738630983</v>
       </c>
       <c r="D16">
-        <v>0.177930870373558</v>
+        <v>0.03182568750929704</v>
       </c>
       <c r="E16">
-        <v>0.01548750318489045</v>
+        <v>0.0221229934829279</v>
       </c>
       <c r="F16">
-        <v>10.67979975435301</v>
+        <v>0.9955902181045815</v>
       </c>
       <c r="G16">
-        <v>0.0008746729604943175</v>
+        <v>0.7810653268491308</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1809486189334137</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2285950865155186</v>
+        <v>0.5933495907746646</v>
       </c>
       <c r="K16">
-        <v>1.179885754284129</v>
+        <v>0.6001778066292616</v>
       </c>
       <c r="L16">
-        <v>0.06328772051302423</v>
+        <v>0.07380553713972304</v>
       </c>
       <c r="M16">
-        <v>0.2204167001127075</v>
+        <v>1.33120282285833</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05828361327669285</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1952305335020554</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.324819272680742</v>
+        <v>1.259711338537073</v>
       </c>
       <c r="C17">
-        <v>0.08254654832950337</v>
+        <v>0.1604528350259784</v>
       </c>
       <c r="D17">
-        <v>0.1709522541623016</v>
+        <v>0.0317122035274906</v>
       </c>
       <c r="E17">
-        <v>0.015591296273052</v>
+        <v>0.0217877390653628</v>
       </c>
       <c r="F17">
-        <v>10.35160618260568</v>
+        <v>1.043912210717508</v>
       </c>
       <c r="G17">
-        <v>0.0008785013520719471</v>
+        <v>0.8251093055382199</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1447155210911006</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.223823730714706</v>
+        <v>0.6191371726337138</v>
       </c>
       <c r="K17">
-        <v>1.132253342313675</v>
+        <v>0.6330595132101173</v>
       </c>
       <c r="L17">
-        <v>0.06229742764676161</v>
+        <v>0.06664780661920844</v>
       </c>
       <c r="M17">
-        <v>0.21317092003369</v>
+        <v>1.268315422540468</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06627874116783516</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1953770252931832</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.29651161556157</v>
+        <v>1.228937068381782</v>
       </c>
       <c r="C18">
-        <v>0.08013620043514891</v>
+        <v>0.1493788797597091</v>
       </c>
       <c r="D18">
-        <v>0.1669648712422998</v>
+        <v>0.03319354314707823</v>
       </c>
       <c r="E18">
-        <v>0.01565246386780661</v>
+        <v>0.02278825815043328</v>
       </c>
       <c r="F18">
-        <v>10.1641640783082</v>
+        <v>1.143667745991593</v>
       </c>
       <c r="G18">
-        <v>0.0008807116365477305</v>
+        <v>0.9148052720500601</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0922848851039646</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2210981822324385</v>
+        <v>0.6670144912822309</v>
       </c>
       <c r="K18">
-        <v>1.105227054570491</v>
+        <v>0.6935464677484546</v>
       </c>
       <c r="L18">
-        <v>0.06175133041782033</v>
+        <v>0.05850340326206194</v>
       </c>
       <c r="M18">
-        <v>0.2090711942308019</v>
+        <v>1.222637529589889</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08634392646450806</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2061794014251674</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.286993049540456</v>
+        <v>1.218926134260073</v>
       </c>
       <c r="C19">
-        <v>0.07932486452126852</v>
+        <v>0.1391115393740563</v>
       </c>
       <c r="D19">
-        <v>0.1656191261832589</v>
+        <v>0.03588886758392107</v>
       </c>
       <c r="E19">
-        <v>0.01567342570881269</v>
+        <v>0.0265207898208164</v>
       </c>
       <c r="F19">
-        <v>10.10091708645948</v>
+        <v>1.284491971881337</v>
       </c>
       <c r="G19">
-        <v>0.0008814615037680257</v>
+        <v>1.041522425776463</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04606857890679095</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.220178435767977</v>
+        <v>0.7323630355276691</v>
       </c>
       <c r="K19">
-        <v>1.096137749142827</v>
+        <v>0.7773433838163655</v>
       </c>
       <c r="L19">
-        <v>0.06157036579732278</v>
+        <v>0.05501904458908102</v>
       </c>
       <c r="M19">
-        <v>0.2076943760750503</v>
+        <v>1.194436137838409</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1188408617426546</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2251374052426129</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.330090245676274</v>
+        <v>1.267606127577295</v>
       </c>
       <c r="C20">
-        <v>0.08299497111784149</v>
+        <v>0.1311723174153911</v>
       </c>
       <c r="D20">
-        <v>0.171692335423117</v>
+        <v>0.04194433126145469</v>
       </c>
       <c r="E20">
-        <v>0.01558009516712877</v>
+        <v>0.03748047547731481</v>
       </c>
       <c r="F20">
-        <v>10.38640327213483</v>
+        <v>1.535057309302914</v>
       </c>
       <c r="G20">
-        <v>0.0008780929736325603</v>
+        <v>1.266939099321647</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01552776358908714</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2243296662109273</v>
+        <v>0.8439467143817865</v>
       </c>
       <c r="K20">
-        <v>1.137284977906006</v>
+        <v>0.9226492504046533</v>
       </c>
       <c r="L20">
-        <v>0.06240039041303902</v>
+        <v>0.06358555536295718</v>
       </c>
       <c r="M20">
-        <v>0.2139351325793903</v>
+        <v>1.215873630750792</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1848301066226981</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2666337684874733</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.479822326174144</v>
+        <v>1.428361011309988</v>
       </c>
       <c r="C21">
-        <v>0.09569385504084948</v>
+        <v>0.1451658614971194</v>
       </c>
       <c r="D21">
-        <v>0.1924333518810073</v>
+        <v>0.04747012764628522</v>
       </c>
       <c r="E21">
-        <v>0.01528411749842684</v>
+        <v>0.04149162795392058</v>
       </c>
       <c r="F21">
-        <v>11.36222663121669</v>
+        <v>1.625506711894332</v>
       </c>
       <c r="G21">
-        <v>0.0008668682115736548</v>
+        <v>1.344694245508919</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0106420987087918</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.238513864789752</v>
+        <v>0.8740804692640864</v>
       </c>
       <c r="K21">
-        <v>1.280143264979671</v>
+        <v>0.9581975636682643</v>
       </c>
       <c r="L21">
-        <v>0.06547768617861038</v>
+        <v>0.068288534380196</v>
       </c>
       <c r="M21">
-        <v>0.2357432343079218</v>
+        <v>1.369873472113795</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2110254953169743</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3021620407360146</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.581794630193116</v>
+        <v>1.53390968375615</v>
       </c>
       <c r="C22">
-        <v>0.1043136511074891</v>
+        <v>0.1549488400631702</v>
       </c>
       <c r="D22">
-        <v>0.2062842328747223</v>
+        <v>0.0508741889956994</v>
       </c>
       <c r="E22">
-        <v>0.0151039286975827</v>
+        <v>0.0435046534186192</v>
       </c>
       <c r="F22">
-        <v>12.01425389847412</v>
+        <v>1.674424545691849</v>
       </c>
       <c r="G22">
-        <v>0.0008595870118575264</v>
+        <v>1.386361192538317</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.008156853810321885</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2479889155641146</v>
+        <v>0.8892037920276579</v>
       </c>
       <c r="K22">
-        <v>1.377379697820885</v>
+        <v>0.9751846134939939</v>
       </c>
       <c r="L22">
-        <v>0.06772273271557339</v>
+        <v>0.07063054754807574</v>
       </c>
       <c r="M22">
-        <v>0.2506924508063406</v>
+        <v>1.472235158080309</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2249674857999793</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3239007334313087</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.526963693474073</v>
+        <v>1.477520966906809</v>
       </c>
       <c r="C23">
-        <v>0.09968061824373819</v>
+        <v>0.1497204298873953</v>
       </c>
       <c r="D23">
-        <v>0.1988616510428756</v>
+        <v>0.04905561702355499</v>
       </c>
       <c r="E23">
-        <v>0.01519887728579095</v>
+        <v>0.04242869585499598</v>
       </c>
       <c r="F23">
-        <v>11.66482093809589</v>
+        <v>1.648166955818965</v>
       </c>
       <c r="G23">
-        <v>0.000863469097442617</v>
+        <v>1.363976513476459</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.009438230408421303</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2429112143769458</v>
+        <v>0.8810539806322595</v>
       </c>
       <c r="K23">
-        <v>1.325098866207952</v>
+        <v>0.9660293865524849</v>
       </c>
       <c r="L23">
-        <v>0.06650182293604701</v>
+        <v>0.06937988105143056</v>
       </c>
       <c r="M23">
-        <v>0.2426452451073864</v>
+        <v>1.417547329499058</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2175201640686595</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3122883068449411</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.327706047338097</v>
+        <v>1.265092881701548</v>
       </c>
       <c r="C24">
-        <v>0.08279215236225923</v>
+        <v>0.1300595519807075</v>
       </c>
       <c r="D24">
-        <v>0.1713576683271185</v>
+        <v>0.04220357441403877</v>
       </c>
       <c r="E24">
-        <v>0.01558515453056408</v>
+        <v>0.03838432045373708</v>
       </c>
       <c r="F24">
-        <v>10.3706676694259</v>
+        <v>1.551889217706361</v>
       </c>
       <c r="G24">
-        <v>0.0008782775724126754</v>
+        <v>1.28229856539275</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01525238301151605</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2241008784507699</v>
+        <v>0.8518556323078599</v>
       </c>
       <c r="K24">
-        <v>1.135009065712438</v>
+        <v>0.933249512379362</v>
       </c>
       <c r="L24">
-        <v>0.06235376883444843</v>
+        <v>0.06465318320050706</v>
       </c>
       <c r="M24">
-        <v>0.2135894275823667</v>
+        <v>1.211557323315674</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1894394756581903</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2685140095858856</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.127718604006475</v>
+        <v>1.037887203948344</v>
       </c>
       <c r="C25">
-        <v>0.06566496280228762</v>
+        <v>0.1090692916054508</v>
       </c>
       <c r="D25">
-        <v>0.142678100179495</v>
+        <v>0.03486956385815176</v>
       </c>
       <c r="E25">
-        <v>0.01605789737768326</v>
+        <v>0.03406436796333523</v>
       </c>
       <c r="F25">
-        <v>9.024318776643582</v>
+        <v>1.454145691032323</v>
       </c>
       <c r="G25">
-        <v>0.000894576572002274</v>
+        <v>1.200140680945381</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02340472192460064</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2045133655432494</v>
+        <v>0.8236191077703836</v>
       </c>
       <c r="K25">
-        <v>0.9438874657337522</v>
+        <v>0.9015787900176946</v>
       </c>
       <c r="L25">
-        <v>0.05876688343711933</v>
+        <v>0.05954485260209452</v>
       </c>
       <c r="M25">
-        <v>0.1848020073012044</v>
+        <v>0.9912569994100977</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1593455400226418</v>
       </c>
       <c r="O25">
+        <v>0.2216431484556871</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8717666492633782</v>
+        <v>0.8518467193561037</v>
       </c>
       <c r="C2">
-        <v>0.09372099080403018</v>
+        <v>0.1053945665788802</v>
       </c>
       <c r="D2">
-        <v>0.02950036453442806</v>
+        <v>0.03712784201763952</v>
       </c>
       <c r="E2">
-        <v>0.03089839487320489</v>
+        <v>0.03089878491045539</v>
       </c>
       <c r="F2">
-        <v>1.386798605642156</v>
+        <v>1.192539889331762</v>
       </c>
       <c r="G2">
-        <v>1.144117453810509</v>
+        <v>0.9542470930056339</v>
       </c>
       <c r="H2">
-        <v>0.03086504531896561</v>
+        <v>0.02424121256055178</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8053440165168979</v>
+        <v>0.6860838019534157</v>
       </c>
       <c r="K2">
-        <v>0.8810923612770623</v>
+        <v>0.7148832170699322</v>
       </c>
       <c r="L2">
-        <v>0.05574536439287847</v>
+        <v>0.2786327848885506</v>
       </c>
       <c r="M2">
-        <v>0.8301602760077458</v>
+        <v>0.2569391925947677</v>
       </c>
       <c r="N2">
-        <v>0.1372846884131178</v>
+        <v>0.05122063378926711</v>
       </c>
       <c r="O2">
-        <v>0.1873367612033121</v>
+        <v>0.8649044456186061</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1624391544786477</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1905751280606935</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7596921137125889</v>
+        <v>0.742685690062018</v>
       </c>
       <c r="C3">
-        <v>0.08334970376853335</v>
+        <v>0.09084145952245137</v>
       </c>
       <c r="D3">
-        <v>0.02587271450211404</v>
+        <v>0.03250585164263242</v>
       </c>
       <c r="E3">
-        <v>0.02875202922896936</v>
+        <v>0.0290175236332626</v>
       </c>
       <c r="F3">
-        <v>1.343748831403929</v>
+        <v>1.164911504841804</v>
       </c>
       <c r="G3">
-        <v>1.108642031602429</v>
+        <v>0.938494493805905</v>
       </c>
       <c r="H3">
-        <v>0.03675610587808786</v>
+        <v>0.02892882448159395</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.7943959594364429</v>
+        <v>0.6759131745297822</v>
       </c>
       <c r="K3">
-        <v>0.8688193744838344</v>
+        <v>0.7124593451137713</v>
       </c>
       <c r="L3">
-        <v>0.05313276711837212</v>
+        <v>0.2815363337686669</v>
       </c>
       <c r="M3">
-        <v>0.7214404834542734</v>
+        <v>0.2540850175280198</v>
       </c>
       <c r="N3">
-        <v>0.1223618969113929</v>
+        <v>0.04918848731677894</v>
       </c>
       <c r="O3">
-        <v>0.1641719121536838</v>
+        <v>0.7509763976575812</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1456528454548547</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1667862307973884</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6910611052528566</v>
+        <v>0.6756535760234499</v>
       </c>
       <c r="C4">
-        <v>0.0769857626292918</v>
+        <v>0.08198135369913473</v>
       </c>
       <c r="D4">
-        <v>0.023648410000078</v>
+        <v>0.02968232701807239</v>
       </c>
       <c r="E4">
-        <v>0.0274307232918467</v>
+        <v>0.02785650385155325</v>
       </c>
       <c r="F4">
-        <v>1.318505311144477</v>
+        <v>1.148816030167801</v>
       </c>
       <c r="G4">
-        <v>1.087998249441569</v>
+        <v>0.9298581758708906</v>
       </c>
       <c r="H4">
-        <v>0.04076200612334135</v>
+        <v>0.03212132549341518</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7883421492757208</v>
+        <v>0.6699187366609749</v>
       </c>
       <c r="K4">
-        <v>0.8620301803425434</v>
+        <v>0.7114740725334698</v>
       </c>
       <c r="L4">
-        <v>0.0515057780804451</v>
+        <v>0.2833614566690166</v>
       </c>
       <c r="M4">
-        <v>0.6548408797572733</v>
+        <v>0.2532038589801786</v>
       </c>
       <c r="N4">
-        <v>0.1132031927187427</v>
+        <v>0.04791635475695166</v>
       </c>
       <c r="O4">
-        <v>0.1499777055296576</v>
+        <v>0.681130725290231</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1353744092674987</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1521991686956099</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6631306210142895</v>
+        <v>0.6483294194012785</v>
       </c>
       <c r="C5">
-        <v>0.0743919401278248</v>
+        <v>0.07838794074427824</v>
       </c>
       <c r="D5">
-        <v>0.02274244969720129</v>
+        <v>0.02853504902884652</v>
       </c>
       <c r="E5">
-        <v>0.0268909943282436</v>
+        <v>0.02738156787495782</v>
       </c>
       <c r="F5">
-        <v>1.308505004378219</v>
+        <v>1.142466010805443</v>
       </c>
       <c r="G5">
-        <v>1.079859293644574</v>
+        <v>0.9265876580130481</v>
       </c>
       <c r="H5">
-        <v>0.04248888804014195</v>
+        <v>0.03349868838235648</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.7860375762158753</v>
+        <v>0.6675364143926004</v>
       </c>
       <c r="K5">
-        <v>0.8594445056116768</v>
+        <v>0.7111944193437409</v>
       </c>
       <c r="L5">
-        <v>0.05083642184701365</v>
+        <v>0.2841155641168882</v>
       </c>
       <c r="M5">
-        <v>0.6277305082391251</v>
+        <v>0.2530604383260169</v>
       </c>
       <c r="N5">
-        <v>0.1094706078907564</v>
+        <v>0.04739136060220073</v>
       </c>
       <c r="O5">
-        <v>0.144199081151541</v>
+        <v>0.6526872985031247</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1311918533086853</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1462583198952672</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6584947833163426</v>
+        <v>0.6437916018226133</v>
       </c>
       <c r="C6">
-        <v>0.07396116784720874</v>
+        <v>0.07779224108973892</v>
       </c>
       <c r="D6">
-        <v>0.0225920348010753</v>
+        <v>0.02834473754553812</v>
       </c>
       <c r="E6">
-        <v>0.026801283056332</v>
+        <v>0.02730258657436302</v>
       </c>
       <c r="F6">
-        <v>1.306861420912092</v>
+        <v>1.141423952471634</v>
       </c>
       <c r="G6">
-        <v>1.078523988537398</v>
+        <v>0.9260592903314091</v>
       </c>
       <c r="H6">
-        <v>0.04278124528496052</v>
+        <v>0.03373193701815635</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.7856645519663772</v>
+        <v>0.6671444121893586</v>
       </c>
       <c r="K6">
-        <v>0.8590258958018353</v>
+        <v>0.7111552109130699</v>
       </c>
       <c r="L6">
-        <v>0.05072487542158033</v>
+        <v>0.2842414002767448</v>
       </c>
       <c r="M6">
-        <v>0.6232303687518908</v>
+        <v>0.2530495513415048</v>
       </c>
       <c r="N6">
-        <v>0.1088507568852179</v>
+        <v>0.04730377466170665</v>
       </c>
       <c r="O6">
-        <v>0.1432398374670534</v>
+        <v>0.6479652393879149</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1304976721380768</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1452720187419736</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6906842856661797</v>
+        <v>0.6754972678191677</v>
       </c>
       <c r="C7">
-        <v>0.07695078522217358</v>
+        <v>0.08166869123584775</v>
       </c>
       <c r="D7">
-        <v>0.02363619043217824</v>
+        <v>0.02983744235287134</v>
       </c>
       <c r="E7">
-        <v>0.02742345007143854</v>
+        <v>0.02787242289803071</v>
       </c>
       <c r="F7">
-        <v>1.318369298929071</v>
+        <v>1.146557104590471</v>
       </c>
       <c r="G7">
-        <v>1.087887393359466</v>
+        <v>0.9324065425070671</v>
       </c>
       <c r="H7">
-        <v>0.04078491733471745</v>
+        <v>0.03215744647636121</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.7883104187140191</v>
+        <v>0.6636107971999508</v>
       </c>
       <c r="K7">
-        <v>0.8619945849318569</v>
+        <v>0.710183781810251</v>
       </c>
       <c r="L7">
-        <v>0.05149677737591052</v>
+        <v>0.2828083545117188</v>
       </c>
       <c r="M7">
-        <v>0.6544751523944967</v>
+        <v>0.2528038987386694</v>
       </c>
       <c r="N7">
-        <v>0.113152856858818</v>
+        <v>0.04788237978552878</v>
       </c>
       <c r="O7">
-        <v>0.1498997523483183</v>
+        <v>0.6804311270434198</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1352968478905154</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1521476054625168</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8330798030949325</v>
+        <v>0.8149082883999483</v>
       </c>
       <c r="C8">
-        <v>0.09014320179390722</v>
+        <v>0.09946427394821455</v>
       </c>
       <c r="D8">
-        <v>0.02824871283352337</v>
+        <v>0.03610818656655113</v>
       </c>
       <c r="E8">
-        <v>0.0301587777744956</v>
+        <v>0.03032678295610669</v>
       </c>
       <c r="F8">
-        <v>1.371700566534358</v>
+        <v>1.175695854777338</v>
       </c>
       <c r="G8">
-        <v>1.131641460101037</v>
+        <v>0.957274164147293</v>
       </c>
       <c r="H8">
-        <v>0.03281356131770763</v>
+        <v>0.02583998516883312</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.8014269221124124</v>
+        <v>0.6620741373433674</v>
       </c>
       <c r="K8">
-        <v>0.8767015574127512</v>
+        <v>0.7097545458155352</v>
       </c>
       <c r="L8">
-        <v>0.05484891256630853</v>
+        <v>0.2778991976304646</v>
       </c>
       <c r="M8">
-        <v>0.7926357035600802</v>
+        <v>0.2543698825602121</v>
       </c>
       <c r="N8">
-        <v>0.1321376642950156</v>
+        <v>0.05043899676811581</v>
       </c>
       <c r="O8">
-        <v>0.1793424285525198</v>
+        <v>0.8245264647930526</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1565748051488782</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1824618092613548</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.114208791091727</v>
+        <v>1.087780245959351</v>
       </c>
       <c r="C9">
-        <v>0.1161182314465066</v>
+        <v>0.136005606311798</v>
       </c>
       <c r="D9">
-        <v>0.03733410344701582</v>
+        <v>0.04791173699234008</v>
       </c>
       <c r="E9">
-        <v>0.03551586014387453</v>
+        <v>0.03502666254297537</v>
       </c>
       <c r="F9">
-        <v>1.486312456021821</v>
+        <v>1.24806255862471</v>
       </c>
       <c r="G9">
-        <v>1.227080222847761</v>
+        <v>1.005316732600591</v>
       </c>
       <c r="H9">
-        <v>0.02042184988973161</v>
+        <v>0.01600192427929281</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8327215073018266</v>
+        <v>0.6835491906173843</v>
       </c>
       <c r="K9">
-        <v>0.9117853821208968</v>
+        <v>0.7177939700649958</v>
       </c>
       <c r="L9">
-        <v>0.06126962946835413</v>
+        <v>0.2706783906883494</v>
       </c>
       <c r="M9">
-        <v>1.065260202912526</v>
+        <v>0.2659510548588884</v>
       </c>
       <c r="N9">
-        <v>0.1694630936383206</v>
+        <v>0.05537792969073685</v>
       </c>
       <c r="O9">
-        <v>0.2373939494121586</v>
+        <v>1.109460851739982</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1986594520145104</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2420266214369384</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.322427886468432</v>
+        <v>1.290545559772113</v>
       </c>
       <c r="C10">
-        <v>0.1364968359630581</v>
+        <v>0.1625531171203249</v>
       </c>
       <c r="D10">
-        <v>0.04361561526278734</v>
+        <v>0.05710133236607362</v>
       </c>
       <c r="E10">
-        <v>0.03825498074018618</v>
+        <v>0.03746867396879949</v>
       </c>
       <c r="F10">
-        <v>1.554417757265881</v>
+        <v>1.276303397564845</v>
       </c>
       <c r="G10">
-        <v>1.283002089723496</v>
+        <v>1.046610863131676</v>
       </c>
       <c r="H10">
-        <v>0.01399104587212108</v>
+        <v>0.01101475050106426</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8489253761121063</v>
+        <v>0.6591319226270116</v>
       </c>
       <c r="K10">
-        <v>0.9277523957172988</v>
+        <v>0.7097582991173397</v>
       </c>
       <c r="L10">
-        <v>0.06449989946904111</v>
+        <v>0.259635143339473</v>
       </c>
       <c r="M10">
-        <v>1.269572072906328</v>
+        <v>0.2723867246254308</v>
       </c>
       <c r="N10">
-        <v>0.1906730524341285</v>
+        <v>0.05786361658297778</v>
       </c>
       <c r="O10">
-        <v>0.2772474524844384</v>
+        <v>1.319893510793463</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2225839136789887</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2829766117674737</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.416377609378287</v>
+        <v>1.388952979470872</v>
       </c>
       <c r="C11">
-        <v>0.1561855699640233</v>
+        <v>0.1790007373994058</v>
       </c>
       <c r="D11">
-        <v>0.04264980906664562</v>
+        <v>0.05746973096331232</v>
       </c>
       <c r="E11">
-        <v>0.03064698249729947</v>
+        <v>0.0303945303054709</v>
       </c>
       <c r="F11">
-        <v>1.392846882068241</v>
+        <v>1.122402330297064</v>
       </c>
       <c r="G11">
-        <v>1.134364971299135</v>
+        <v>0.9588953836585006</v>
       </c>
       <c r="H11">
-        <v>0.03199601902662152</v>
+        <v>0.02929337610017058</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7683193040980427</v>
+        <v>0.5396299549424128</v>
       </c>
       <c r="K11">
-        <v>0.8190875596949212</v>
+        <v>0.6158331165976207</v>
       </c>
       <c r="L11">
-        <v>0.0586416970099658</v>
+        <v>0.223442890794793</v>
       </c>
       <c r="M11">
-        <v>1.383529832041404</v>
+        <v>0.2394048316940314</v>
       </c>
       <c r="N11">
-        <v>0.1489095123262771</v>
+        <v>0.05563415191938414</v>
       </c>
       <c r="O11">
-        <v>0.2684957360953888</v>
+        <v>1.428226863265991</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1755673410476248</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2741243020835356</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.451533427499299</v>
+        <v>1.428593617784117</v>
       </c>
       <c r="C12">
-        <v>0.1693138311663063</v>
+        <v>0.1885573092835386</v>
       </c>
       <c r="D12">
-        <v>0.04049829463805565</v>
+        <v>0.05511201993383708</v>
       </c>
       <c r="E12">
-        <v>0.02601106347236515</v>
+        <v>0.02603144556050463</v>
       </c>
       <c r="F12">
-        <v>1.249248785402614</v>
+        <v>1.001326589989411</v>
       </c>
       <c r="G12">
-        <v>1.004382082568881</v>
+        <v>0.8692111171316697</v>
       </c>
       <c r="H12">
-        <v>0.07093465030825996</v>
+        <v>0.06823408851983004</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7002094445642939</v>
+        <v>0.473835392582707</v>
       </c>
       <c r="K12">
-        <v>0.7303458108240477</v>
+        <v>0.5485317641287644</v>
       </c>
       <c r="L12">
-        <v>0.05998339663091201</v>
+        <v>0.1995613006995676</v>
       </c>
       <c r="M12">
-        <v>1.437403599483162</v>
+        <v>0.2133869905139534</v>
       </c>
       <c r="N12">
-        <v>0.1143547225836556</v>
+        <v>0.05990566403639264</v>
       </c>
       <c r="O12">
-        <v>0.2527579920878154</v>
+        <v>1.477005131383294</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1365032738202814</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.257983117221027</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.44309814335611</v>
+        <v>1.424277367554254</v>
       </c>
       <c r="C13">
-        <v>0.1779850967171228</v>
+        <v>0.1941258787132654</v>
       </c>
       <c r="D13">
-        <v>0.03732261103702683</v>
+        <v>0.0501538238167285</v>
       </c>
       <c r="E13">
-        <v>0.02337402167351005</v>
+        <v>0.02356310409106926</v>
       </c>
       <c r="F13">
-        <v>1.110954822610026</v>
+        <v>0.9000141211663859</v>
       </c>
       <c r="G13">
-        <v>0.8809107783070402</v>
+        <v>0.7683056794464989</v>
       </c>
       <c r="H13">
-        <v>0.1276708454893338</v>
+        <v>0.1247416593748198</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6375202384167977</v>
+        <v>0.4440779172996159</v>
       </c>
       <c r="K13">
-        <v>0.6514621230652651</v>
+        <v>0.497799698284954</v>
       </c>
       <c r="L13">
-        <v>0.06675187449682696</v>
+        <v>0.1827756913275671</v>
       </c>
       <c r="M13">
-        <v>1.44756503209959</v>
+        <v>0.192051251900633</v>
       </c>
       <c r="N13">
-        <v>0.08354984389875142</v>
+        <v>0.06903447061720769</v>
       </c>
       <c r="O13">
-        <v>0.2308670533480495</v>
+        <v>1.483219243062251</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1015734597120073</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2353753745485925</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.417495185949434</v>
+        <v>1.401369512429341</v>
       </c>
       <c r="C14">
-        <v>0.1820590947016427</v>
+        <v>0.1962379030890986</v>
       </c>
       <c r="D14">
-        <v>0.03465917176720978</v>
+        <v>0.04563764666868764</v>
       </c>
       <c r="E14">
-        <v>0.02274821190919041</v>
+        <v>0.02305984430258179</v>
       </c>
       <c r="F14">
-        <v>1.018228086101217</v>
+        <v>0.8376245083711709</v>
       </c>
       <c r="G14">
-        <v>0.7990109921698121</v>
+        <v>0.6956930732396671</v>
       </c>
       <c r="H14">
-        <v>0.1780296264227132</v>
+        <v>0.1748310871709151</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.596813809151314</v>
+        <v>0.4356378607760973</v>
       </c>
       <c r="K14">
-        <v>0.6018589753017736</v>
+        <v>0.4693906779729815</v>
       </c>
       <c r="L14">
-        <v>0.07474961592744478</v>
+        <v>0.1737845111125758</v>
       </c>
       <c r="M14">
-        <v>1.434890641642511</v>
+        <v>0.1794068823983395</v>
       </c>
       <c r="N14">
-        <v>0.06458681627281848</v>
+        <v>0.07825595266818297</v>
       </c>
       <c r="O14">
-        <v>0.2129430736919069</v>
+        <v>1.468260722556238</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07998231400119238</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2168221944227646</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.401979359671969</v>
+        <v>1.38642511841428</v>
       </c>
       <c r="C15">
-        <v>0.1819678075118958</v>
+        <v>0.195799347988924</v>
       </c>
       <c r="D15">
-        <v>0.03380010288449142</v>
+        <v>0.04406690948521685</v>
       </c>
       <c r="E15">
-        <v>0.02271188362345811</v>
+        <v>0.02307216255062894</v>
       </c>
       <c r="F15">
-        <v>0.9959704220472005</v>
+        <v>0.8249772171109342</v>
       </c>
       <c r="G15">
-        <v>0.7796044301617542</v>
+        <v>0.6764279659924881</v>
       </c>
       <c r="H15">
-        <v>0.1910278890126449</v>
+        <v>0.1877001148332056</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5876583976730672</v>
+        <v>0.4384245532023385</v>
       </c>
       <c r="K15">
-        <v>0.5910932321603362</v>
+        <v>0.4647277441371713</v>
       </c>
       <c r="L15">
-        <v>0.07690585993130483</v>
+        <v>0.1724670734818812</v>
       </c>
       <c r="M15">
-        <v>1.42231967687286</v>
+        <v>0.1770245757298845</v>
       </c>
       <c r="N15">
-        <v>0.06014631303795426</v>
+        <v>0.08060581196498973</v>
       </c>
       <c r="O15">
-        <v>0.2073015767285575</v>
+        <v>1.45534877201527</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.07493339012549427</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2109682217314202</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.313649073966985</v>
+        <v>1.297530303370763</v>
       </c>
       <c r="C16">
-        <v>0.1709988738630983</v>
+        <v>0.1857556607523918</v>
       </c>
       <c r="D16">
-        <v>0.03182568750929704</v>
+        <v>0.03986109445129671</v>
       </c>
       <c r="E16">
-        <v>0.0221229934829279</v>
+        <v>0.02264050598451872</v>
       </c>
       <c r="F16">
-        <v>0.9955902181045815</v>
+        <v>0.8455154927293478</v>
       </c>
       <c r="G16">
-        <v>0.7810653268491308</v>
+        <v>0.6615874428909621</v>
       </c>
       <c r="H16">
-        <v>0.1809486189334137</v>
+        <v>0.1769676179475397</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5933495907746646</v>
+        <v>0.483226252223794</v>
       </c>
       <c r="K16">
-        <v>0.6001778066292616</v>
+        <v>0.4835652374445836</v>
       </c>
       <c r="L16">
-        <v>0.07380553713972304</v>
+        <v>0.1801342213291512</v>
       </c>
       <c r="M16">
-        <v>1.33120282285833</v>
+        <v>0.182429393850807</v>
       </c>
       <c r="N16">
-        <v>0.05828361327669285</v>
+        <v>0.07696593452969935</v>
       </c>
       <c r="O16">
-        <v>0.1952305335020554</v>
+        <v>1.365792685118947</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.07307038568363211</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1983666652522018</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.259711338537073</v>
+        <v>1.24209278529375</v>
       </c>
       <c r="C17">
-        <v>0.1604528350259784</v>
+        <v>0.1764034556930199</v>
       </c>
       <c r="D17">
-        <v>0.0317122035274906</v>
+        <v>0.03920229122026342</v>
       </c>
       <c r="E17">
-        <v>0.0217877390653628</v>
+        <v>0.02229198206897032</v>
       </c>
       <c r="F17">
-        <v>1.043912210717508</v>
+        <v>0.8932232081223006</v>
       </c>
       <c r="G17">
-        <v>0.8251093055382199</v>
+        <v>0.6900285034366505</v>
       </c>
       <c r="H17">
-        <v>0.1447155210911006</v>
+        <v>0.1403761539514505</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6191371726337138</v>
+        <v>0.5214487158841052</v>
       </c>
       <c r="K17">
-        <v>0.6330595132101173</v>
+        <v>0.512870360685227</v>
       </c>
       <c r="L17">
-        <v>0.06664780661920844</v>
+        <v>0.1912428114767053</v>
       </c>
       <c r="M17">
-        <v>1.268315422540468</v>
+        <v>0.1927648175130692</v>
       </c>
       <c r="N17">
-        <v>0.06627874116783516</v>
+        <v>0.06892659900227827</v>
       </c>
       <c r="O17">
-        <v>0.1953770252931832</v>
+        <v>1.304695800049586</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.08237534153243331</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1984680902835265</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.228937068381782</v>
+        <v>1.208474840743577</v>
       </c>
       <c r="C18">
-        <v>0.1493788797597091</v>
+        <v>0.1674151704028617</v>
       </c>
       <c r="D18">
-        <v>0.03319354314707823</v>
+        <v>0.0411338405752133</v>
       </c>
       <c r="E18">
-        <v>0.02278825815043328</v>
+        <v>0.02309944874338044</v>
       </c>
       <c r="F18">
-        <v>1.143667745991593</v>
+        <v>0.9764564255318646</v>
       </c>
       <c r="G18">
-        <v>0.9148052720500601</v>
+        <v>0.7564606972170793</v>
       </c>
       <c r="H18">
-        <v>0.0922848851039646</v>
+        <v>0.08785968370960262</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6670144912822309</v>
+        <v>0.5666232087092453</v>
       </c>
       <c r="K18">
-        <v>0.6935464677484546</v>
+        <v>0.5588344868541384</v>
       </c>
       <c r="L18">
-        <v>0.05850340326206194</v>
+        <v>0.2083094177259994</v>
       </c>
       <c r="M18">
-        <v>1.222637529589889</v>
+        <v>0.209867015262887</v>
       </c>
       <c r="N18">
-        <v>0.08634392646450806</v>
+        <v>0.05926068467888257</v>
       </c>
       <c r="O18">
-        <v>0.2061794014251674</v>
+        <v>1.261980864802069</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1052733608154881</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2095952215445287</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.218926134260073</v>
+        <v>1.194627148676346</v>
       </c>
       <c r="C19">
-        <v>0.1391115393740563</v>
+        <v>0.1598499843907746</v>
       </c>
       <c r="D19">
-        <v>0.03588886758392107</v>
+        <v>0.04494367784151621</v>
       </c>
       <c r="E19">
-        <v>0.0265207898208164</v>
+        <v>0.02646994428437388</v>
       </c>
       <c r="F19">
-        <v>1.284491971881337</v>
+        <v>1.088575806476975</v>
       </c>
       <c r="G19">
-        <v>1.041522425776463</v>
+        <v>0.8517000561143249</v>
       </c>
       <c r="H19">
-        <v>0.04606857890679095</v>
+        <v>0.04183639249838933</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7323630355276691</v>
+        <v>0.6193332168272292</v>
       </c>
       <c r="K19">
-        <v>0.7773433838163655</v>
+        <v>0.6192466410144633</v>
       </c>
       <c r="L19">
-        <v>0.05501904458908102</v>
+        <v>0.2305051149892101</v>
       </c>
       <c r="M19">
-        <v>1.194436137838409</v>
+        <v>0.2328198655760261</v>
       </c>
       <c r="N19">
-        <v>0.1188408617426546</v>
+        <v>0.05343772614277764</v>
       </c>
       <c r="O19">
-        <v>0.2251374052426129</v>
+        <v>1.237694389260355</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1420058969012175</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2291504321389048</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.267606127577295</v>
+        <v>1.236504038526704</v>
       </c>
       <c r="C20">
-        <v>0.1311723174153911</v>
+        <v>0.1565901355972272</v>
       </c>
       <c r="D20">
-        <v>0.04194433126145469</v>
+        <v>0.0540023134192964</v>
       </c>
       <c r="E20">
-        <v>0.03748047547731481</v>
+        <v>0.03669363918405466</v>
       </c>
       <c r="F20">
-        <v>1.535057309302914</v>
+        <v>1.275215028503268</v>
       </c>
       <c r="G20">
-        <v>1.266939099321647</v>
+        <v>1.025060842151916</v>
       </c>
       <c r="H20">
-        <v>0.01552776358908714</v>
+        <v>0.01217099682695189</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8439467143817865</v>
+        <v>0.6857781238322218</v>
       </c>
       <c r="K20">
-        <v>0.9226492504046533</v>
+        <v>0.715503004261322</v>
       </c>
       <c r="L20">
-        <v>0.06358555536295718</v>
+        <v>0.2638306995756885</v>
       </c>
       <c r="M20">
-        <v>1.215873630750792</v>
+        <v>0.27194553703821</v>
       </c>
       <c r="N20">
-        <v>0.1848301066226981</v>
+        <v>0.05724431959058318</v>
       </c>
       <c r="O20">
-        <v>0.2666337684874733</v>
+        <v>1.265816951530809</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2160677624300433</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2719778684298007</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.428361011309988</v>
+        <v>1.395829160192704</v>
       </c>
       <c r="C21">
-        <v>0.1451658614971194</v>
+        <v>0.1705654070507734</v>
       </c>
       <c r="D21">
-        <v>0.04747012764628522</v>
+        <v>0.06567415224224504</v>
       </c>
       <c r="E21">
-        <v>0.04149162795392058</v>
+        <v>0.04083671783838483</v>
       </c>
       <c r="F21">
-        <v>1.625506711894332</v>
+        <v>1.286693354141576</v>
       </c>
       <c r="G21">
-        <v>1.344694245508919</v>
+        <v>1.136353881482748</v>
       </c>
       <c r="H21">
-        <v>0.0106420987087918</v>
+        <v>0.008439219001759951</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8740804692640864</v>
+        <v>0.5781120271623621</v>
       </c>
       <c r="K21">
-        <v>0.9581975636682643</v>
+        <v>0.7029311384772114</v>
       </c>
       <c r="L21">
-        <v>0.068288534380196</v>
+        <v>0.2531838545628311</v>
       </c>
       <c r="M21">
-        <v>1.369873472113795</v>
+        <v>0.275100371177075</v>
       </c>
       <c r="N21">
-        <v>0.2110254953169743</v>
+        <v>0.06016253141182304</v>
       </c>
       <c r="O21">
-        <v>0.3021620407360146</v>
+        <v>1.418677343542555</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2451519404705635</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3089977765019185</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.53390968375615</v>
+        <v>1.500866335637909</v>
       </c>
       <c r="C22">
-        <v>0.1549488400631702</v>
+        <v>0.1797560112673153</v>
       </c>
       <c r="D22">
-        <v>0.0508741889956994</v>
+        <v>0.07348380199019289</v>
       </c>
       <c r="E22">
-        <v>0.0435046534186192</v>
+        <v>0.04303748254829465</v>
       </c>
       <c r="F22">
-        <v>1.674424545691849</v>
+        <v>1.283101704840675</v>
       </c>
       <c r="G22">
-        <v>1.386361192538317</v>
+        <v>1.209801562322966</v>
       </c>
       <c r="H22">
-        <v>0.008156853810321885</v>
+        <v>0.006551851395131481</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8892037920276579</v>
+        <v>0.5082092724368863</v>
       </c>
       <c r="K22">
-        <v>0.9751846134939939</v>
+        <v>0.6887643495763882</v>
       </c>
       <c r="L22">
-        <v>0.07063054754807574</v>
+        <v>0.2443458999474046</v>
       </c>
       <c r="M22">
-        <v>1.472235158080309</v>
+        <v>0.2750642055607528</v>
       </c>
       <c r="N22">
-        <v>0.2249674857999793</v>
+        <v>0.06156673718810524</v>
       </c>
       <c r="O22">
-        <v>0.3239007334313087</v>
+        <v>1.519230783744348</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2605790410809306</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3316898746497472</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.477520966906809</v>
+        <v>1.444193339045512</v>
       </c>
       <c r="C23">
-        <v>0.1497204298873953</v>
+        <v>0.1755856060716354</v>
       </c>
       <c r="D23">
-        <v>0.04905561702355499</v>
+        <v>0.0687760438099545</v>
       </c>
       <c r="E23">
-        <v>0.04242869585499598</v>
+        <v>0.04178873514535297</v>
       </c>
       <c r="F23">
-        <v>1.648166955818965</v>
+        <v>1.290404123191877</v>
       </c>
       <c r="G23">
-        <v>1.363976513476459</v>
+        <v>1.162429648531273</v>
       </c>
       <c r="H23">
-        <v>0.009438230408421303</v>
+        <v>0.007512114956500227</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8810539806322595</v>
+        <v>0.5566510343426785</v>
       </c>
       <c r="K23">
-        <v>0.9660293865524849</v>
+        <v>0.6993646835928615</v>
       </c>
       <c r="L23">
-        <v>0.06937988105143056</v>
+        <v>0.2500674171328932</v>
       </c>
       <c r="M23">
-        <v>1.417547329499058</v>
+        <v>0.2763112718289875</v>
       </c>
       <c r="N23">
-        <v>0.2175201640686595</v>
+        <v>0.06087369994487357</v>
       </c>
       <c r="O23">
-        <v>0.3122883068449411</v>
+        <v>1.466440137147003</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2523922678007722</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3194950155047422</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.265092881701548</v>
+        <v>1.233613736984495</v>
       </c>
       <c r="C24">
-        <v>0.1300595519807075</v>
+        <v>0.1556782122896294</v>
       </c>
       <c r="D24">
-        <v>0.04220357441403877</v>
+        <v>0.05435691638439266</v>
       </c>
       <c r="E24">
-        <v>0.03838432045373708</v>
+        <v>0.0375431823116017</v>
       </c>
       <c r="F24">
-        <v>1.551889217706361</v>
+        <v>1.288848953427177</v>
       </c>
       <c r="G24">
-        <v>1.28229856539275</v>
+        <v>1.036263056335017</v>
       </c>
       <c r="H24">
-        <v>0.01525238301151605</v>
+        <v>0.01191815222663607</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8518556323078599</v>
+        <v>0.6928678084764783</v>
       </c>
       <c r="K24">
-        <v>0.933249512379362</v>
+        <v>0.723328891342895</v>
       </c>
       <c r="L24">
-        <v>0.06465318320050706</v>
+        <v>0.2667662734512</v>
       </c>
       <c r="M24">
-        <v>1.211557323315674</v>
+        <v>0.274849029990115</v>
       </c>
       <c r="N24">
-        <v>0.1894394756581903</v>
+        <v>0.0579462428911679</v>
       </c>
       <c r="O24">
-        <v>0.2685140095858856</v>
+        <v>1.26187331953949</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2212272042830108</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2739174253074665</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.037887203948344</v>
+        <v>1.013584595531171</v>
       </c>
       <c r="C25">
-        <v>0.1090692916054508</v>
+        <v>0.1264265275170686</v>
       </c>
       <c r="D25">
-        <v>0.03486956385815176</v>
+        <v>0.04444960318511448</v>
       </c>
       <c r="E25">
-        <v>0.03406436796333523</v>
+        <v>0.03372312620665596</v>
       </c>
       <c r="F25">
-        <v>1.454145691032323</v>
+        <v>1.230659020596789</v>
       </c>
       <c r="G25">
-        <v>1.200140680945381</v>
+        <v>0.987541415863106</v>
       </c>
       <c r="H25">
-        <v>0.02340472192460064</v>
+        <v>0.01834926367945289</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8236191077703836</v>
+        <v>0.6861103430294122</v>
       </c>
       <c r="K25">
-        <v>0.9015787900176946</v>
+        <v>0.7168940681919622</v>
       </c>
       <c r="L25">
-        <v>0.05954485260209452</v>
+        <v>0.2732653705584376</v>
       </c>
       <c r="M25">
-        <v>0.9912569994100977</v>
+        <v>0.2626774462529262</v>
       </c>
       <c r="N25">
-        <v>0.1593455400226418</v>
+        <v>0.05409229206669064</v>
       </c>
       <c r="O25">
-        <v>0.2216431484556871</v>
+        <v>1.032660107770425</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1872655587478178</v>
       </c>
       <c r="Q25">
+        <v>0.2258385197147597</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
